--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,48 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>behind</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,15 +100,15 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
@@ -115,22 +118,28 @@
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
     <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -613,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9903846153846154</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -663,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>0.86</v>
@@ -713,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0.6896551724137931</v>
@@ -813,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -831,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -863,13 +872,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -881,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
         <v>0.631578947368421</v>
@@ -913,13 +922,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -931,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -955,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -963,13 +972,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5942028985507246</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -981,31 +990,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5319148936170213</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1031,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.4583333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1063,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5217391304347826</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1081,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.4242424242424243</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1122,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.2367941712204007</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L14">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M14">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1163,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1181,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
         <v>0.2033898305084746</v>
@@ -1213,13 +1222,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1231,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.03463855421686747</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>641</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1263,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3846153846153846</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1281,57 +1290,133 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.02407407407407407</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.01382488479262673</v>
+      </c>
+      <c r="L20">
         <v>24</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L18">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>23</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1713</v>
+      <c r="M20">
+        <v>24</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
